--- a/result/latency/bruteApp1.xlsx
+++ b/result/latency/bruteApp1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>time</t>
   </si>
@@ -53,118 +53,121 @@
     <t>latency_avg</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2^17: 131072</t>
+    <t>2^26: 67108864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 4: CSP5, CSP3, CSP6, 
+EIS = 77: CSP1, CSP8, 
+</t>
+  </si>
+  <si>
+    <t>2^27: 134217728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 98: CSP3, 
+EIS = 71: CSP6, CSP2, 
+EIS = 32: CSP1, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 89: CSP1, CSP9, 
+EIS = 28: CSP1, CSP6, 
+EIS = 77: CSP1, CSP9, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 77: CSP8, CSP9, 
+EIS = 48: CSP4, 
+EIS = 32: CSP1, 
+</t>
+  </si>
+  <si>
+    <t>2^24: 16777216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 77: CSP1, CSP8, CSP9, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 77: CSP1, CSP8, CSP9, 
+EIS = 32: CSP1, CSP8, CSP9, 
+</t>
+  </si>
+  <si>
+    <t>2^21: 2097152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 77: CSP8, CSP9, 
+EIS = 48: CSP1, CSP4, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 77: CSP8, CSP9, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 4: CSP5, CSP3, 
+EIS = 77: CSP8, CSP9, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 71: CSP1, CSP2, 
+EIS = 45: CSP4, CSP2, 
+</t>
+  </si>
+  <si>
+    <t>2^19: 524288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 4: CSP5, CSP3, 
+EIS = 28: CSP1, CSP8, 
+EIS = 77: CSP8, CSP9, 
+</t>
+  </si>
+  <si>
+    <t>2^25: 33554432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 4: CSP3, CSP6, 
+EIS = 77: CSP8, CSP9, 
+EIS = 45: CSP4, CSP2, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 77: CSP1, CSP8, 
+EIS = 45: CSP5, CSP4, 
+</t>
   </si>
   <si>
     <t xml:space="preserve">EIS = 77: CSP9, 
-</t>
+EIS = 45: CSP4, CSP2, 
+</t>
+  </si>
+  <si>
+    <t>2^20: 1048576</t>
   </si>
   <si>
     <t xml:space="preserve">EIS = 77: CSP9, 
-EIS = 48: CSP4, 
-</t>
-  </si>
-  <si>
-    <t>2^15: 32768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 8: CSP8, CSP7, 
-</t>
-  </si>
-  <si>
-    <t>2^20: 1048576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 83: CSP3, CSP6, CSP9, 
+</t>
+  </si>
+  <si>
+    <t>no result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 77: CSP1, CSP8, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS = 17: CSP8, CSP7, CSP2, 
 EIS = 4: CSP5, CSP3, CSP6, 
-EIS = 32: CSP1, CSP8, CSP9, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 4: CSP3, 
-EIS = 24: CSP3, 
+EIS = 77: CSP8, CSP9, CSP4, 
 </t>
   </si>
   <si>
     <t>2^22: 4194304</t>
   </si>
   <si>
-    <t xml:space="preserve">EIS = 8: CSP8, CSP7, CSP9, 
-EIS = 28: CSP1, CSP8, CSP6, 
-EIS = 77: CSP1, CSP8, CSP9, 
-</t>
-  </si>
-  <si>
-    <t>2^25: 33554432</t>
-  </si>
-  <si>
-    <t>no result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 8: CSP8, CSP7, CSP9, 
-EIS = 77: CSP1, CSP8, CSP9, 
-</t>
-  </si>
-  <si>
-    <t>2^24: 16777216</t>
-  </si>
-  <si>
-    <t>2^18: 262144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 77: CSP8, CSP9, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 83: CSP3, CSP1, CSP6, 
-EIS = 30: CSP5, CSP1, CSP8, 
-EIS = 48: CSP1, CSP7, CSP4, 
-</t>
-  </si>
-  <si>
-    <t>2^26: 67108864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 77: CSP1, CSP8, CSP9, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 4: CSP5, CSP3, 
-EIS = 32: CSP1, CSP9, 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">EIS = 45: CSP2, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 45: CSP5, CSP4, CSP2, 
-</t>
-  </si>
-  <si>
-    <t>2^19: 524288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 4: CSP5, CSP3, 
-EIS = 24: CSP3, CSP8, 
-EIS = 30: CSP5, CSP1, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 77: CSP1, CSP8, CSP9, 
-EIS = 45: CSP5, CSP4, CSP2, 
-</t>
-  </si>
-  <si>
-    <t>2^16: 65536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS = 42: CSP3, CSP8, 
-EIS = 12: CSP5, CSP1, 
-EIS = 77: CSP1, CSP8, 
 </t>
   </si>
 </sst>
@@ -259,342 +262,306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.5433246</v>
-      </c>
-      <c r="B2" t="s">
+        <v>197.776013698</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" t="n">
-        <v>8.84187630976626</v>
+        <v>20.647049942545046</v>
       </c>
       <c r="K2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M2" t="n">
-        <v>51.0915226352283</v>
+        <v>64.29469147715072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0012391</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
+        <v>440.169141099</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
       <c r="D3" t="n">
         <v>7.0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F3" t="n">
         <v>8.0</v>
       </c>
       <c r="G3" t="n">
-        <v>17.0</v>
+        <v>27.0</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
       <c r="J3" t="n">
-        <v>15.448502139636727</v>
+        <v>27.717694825835235</v>
       </c>
       <c r="K3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L3" t="n">
         <v>1.0</v>
       </c>
       <c r="M3" t="n">
-        <v>55.767641816308995</v>
+        <v>65.13106560738807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.404264</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
+        <v>403.327964002</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
       <c r="D4" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="F4" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
       <c r="J4" t="n">
-        <v>4.541818128784669</v>
+        <v>32.79026419346719</v>
       </c>
       <c r="K4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L4" t="n">
         <v>2.0</v>
       </c>
       <c r="M4" t="n">
-        <v>56.998461678751994</v>
+        <v>56.22385744135102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.9367364</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
+        <v>462.004250299</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
       <c r="D5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G5" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>40.86615088044823</v>
+        <v>26.731955899905056</v>
       </c>
       <c r="K5" t="n">
         <v>3.0</v>
       </c>
       <c r="L5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M5" t="n">
-        <v>70.1438890568574</v>
+        <v>57.52249075418171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.513998</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
+        <v>43.9164673</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
       <c r="D6" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="F6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>20.067778960384178</v>
+        <v>10.654576608781545</v>
       </c>
       <c r="K6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M6" t="n">
-        <v>58.75809784048491</v>
+        <v>58.16618801351684</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.2718144</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
+        <v>49.133059202</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
       <c r="D7" t="n">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
       <c r="E7" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F7" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G7" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
-        <v>31.190363155620958</v>
+        <v>25.217519630268786</v>
       </c>
       <c r="K7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L7" t="n">
         <v>3.0</v>
       </c>
       <c r="M7" t="n">
-        <v>60.38248715307481</v>
+        <v>64.30379443531655</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74.4046338</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
+        <v>5.273645899</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
       <c r="D8" t="n">
-        <v>33.0</v>
+        <v>5.0</v>
       </c>
       <c r="E8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F8" t="n">
         <v>8.0</v>
       </c>
-      <c r="F8" t="n">
-        <v>10.0</v>
-      </c>
       <c r="G8" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.0</v>
+        <v>17.26120243865201</v>
       </c>
       <c r="K8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.0</v>
+        <v>61.648139338587995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2798191</v>
-      </c>
-      <c r="B9" t="s">
+        <v>187.179808501</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J9" t="n">
-        <v>18.47588399878513</v>
+        <v>10.076659833333778</v>
       </c>
       <c r="K9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M9" t="n">
-        <v>58.879016745925526</v>
+        <v>53.84778031198974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>36.437959</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
+        <v>375.827525001</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
       <c r="D10" t="n">
         <v>7.0</v>
       </c>
@@ -602,142 +569,130 @@
         <v>7.0</v>
       </c>
       <c r="F10" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G10" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
       <c r="J10" t="n">
-        <v>-1.0</v>
+        <v>20.341076386397162</v>
       </c>
       <c r="K10" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L10" t="n">
         <v>2.0</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.0</v>
+        <v>58.81605808089088</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.6703096</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
+        <v>44.0340848</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
       <c r="D11" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G11" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
-        <v>10.076659833333778</v>
+        <v>23.323362628060814</v>
       </c>
       <c r="K11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L11" t="n">
         <v>2.0</v>
       </c>
       <c r="M11" t="n">
-        <v>53.84778031198974</v>
+        <v>54.40940401801882</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>71.504595</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
+        <v>452.754621501</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
       <c r="D12" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" t="n">
         <v>6.0</v>
       </c>
       <c r="F12" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G12" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
       <c r="J12" t="n">
-        <v>30.243951776535603</v>
+        <v>10.076659833333778</v>
       </c>
       <c r="K12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M12" t="n">
-        <v>76.27330368294561</v>
+        <v>53.84778031198974</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.3491462</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
+        <v>1.570716901</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
       <c r="D13" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="E13" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F13" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G13" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.0</v>
+        <v>30.048009501313963</v>
       </c>
       <c r="K13" t="n">
         <v>3.0</v>
@@ -746,194 +701,174 @@
         <v>2.0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.0</v>
+        <v>60.87760777665676</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>160.7380234</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
+        <v>107.000057602</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
       <c r="D14" t="n">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="F14" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G14" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J14" t="n">
-        <v>10.654576608781545</v>
+        <v>34.278645511762655</v>
       </c>
       <c r="K14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M14" t="n">
-        <v>58.16618801351684</v>
+        <v>56.76850074476553</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.937334</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
+        <v>1.6023674</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
       <c r="D15" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E15" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F15" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G15" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J15" t="n">
-        <v>23.59257605098311</v>
+        <v>14.743017398474965</v>
       </c>
       <c r="K15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L15" t="n">
         <v>2.0</v>
       </c>
       <c r="M15" t="n">
-        <v>65.33597304310568</v>
+        <v>63.61858069434921</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3058967</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>57.6636017</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
       <c r="D16" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="E16" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F16" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G16" t="n">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J16" t="n">
-        <v>7.600233037487195</v>
+        <v>19.811542212917274</v>
       </c>
       <c r="K16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L16" t="n">
         <v>1.0</v>
       </c>
       <c r="M16" t="n">
-        <v>50.272326773401076</v>
+        <v>51.436111975797964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.6074247</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
+        <v>3.176586701</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
       <c r="D17" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G17" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J17" t="n">
-        <v>4.541818128784669</v>
+        <v>8.84187630976626</v>
       </c>
       <c r="K17" t="n">
         <v>1.0</v>
       </c>
       <c r="L17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M17" t="n">
-        <v>56.998461678751994</v>
+        <v>51.0915226352283</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.1434908</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
+        <v>52.741443399</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
       <c r="D18" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="E18" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F18" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G18" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
@@ -942,33 +877,29 @@
         <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>11.009308722855563</v>
+        <v>-1.0</v>
       </c>
       <c r="K18" t="n">
         <v>1.0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M18" t="n">
-        <v>60.446536048491886</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.2000048</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
+        <v>1.496391798</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
       <c r="D19" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E19" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F19" t="n">
         <v>8.0</v>
@@ -977,104 +908,96 @@
         <v>19.0</v>
       </c>
       <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
       <c r="J19" t="n">
-        <v>31.428558518232432</v>
+        <v>7.375087347562632</v>
       </c>
       <c r="K19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L19" t="n">
         <v>2.0</v>
       </c>
       <c r="M19" t="n">
-        <v>63.635269513351155</v>
+        <v>61.70352070266111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.3595512</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
+        <v>3.002754399</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
       <c r="D20" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E20" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F20" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G20" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" t="n">
-        <v>21.663885331637108</v>
+        <v>33.68310005002424</v>
       </c>
       <c r="K20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L20" t="n">
         <v>3.0</v>
       </c>
       <c r="M20" t="n">
-        <v>59.30636203100437</v>
+        <v>65.4547881958589</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3239722</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
+        <v>17.520811499</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
       <c r="D21" t="n">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
       <c r="E21" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="F21" t="n">
         <v>8.0</v>
       </c>
       <c r="G21" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
         <v>39</v>
       </c>
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
       <c r="J21" t="n">
-        <v>21.879572378521743</v>
+        <v>7.600233037487195</v>
       </c>
       <c r="K21" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M21" t="n">
-        <v>72.60995840918669</v>
+        <v>50.272326773401076</v>
       </c>
     </row>
   </sheetData>
